--- a/contratos/contratos-1-2017.xlsx
+++ b/contratos/contratos-1-2017.xlsx
@@ -901,7 +901,7 @@
     <t>LEIVA GISELA NOEMI</t>
   </si>
   <si>
-    <t>MARSICO GUILLERMO MIGUEL, MARSICO JUAN EDUARDO</t>
+    <t>MARSICO GUILLERMO MIGUEL. MARSICO JUAN EDUARDO</t>
   </si>
   <si>
     <t>MARTINEZ FEDERICO AUGUSTO</t>
@@ -1045,7 +1045,7 @@
     <t>SCEVOLA MAURICIO OSVALDO</t>
   </si>
   <si>
-    <t>ALBIZZATTI, PABLO MARTIN Y FULINI, SERGIO RUBEN</t>
+    <t>ALBIZZATTI. PABLO MARTIN Y FULINI. SERGIO RUBEN</t>
   </si>
   <si>
     <t>GIORGI EDUARDO DANIEL</t>
@@ -1060,7 +1060,7 @@
     <t>REYMUNDO EDUARDO JORGE</t>
   </si>
   <si>
-    <t>SCHAB DARIO, PEROTTI XAVIER, BENINCA MATIAS S.H.</t>
+    <t>SCHAB DARIO. PEROTTI XAVIER. BENINCA MATIAS SH</t>
   </si>
   <si>
     <t>CUPER S.C.</t>
@@ -1453,595 +1453,595 @@
     <t>7</t>
   </si>
   <si>
-    <t>4.200,00</t>
-  </si>
-  <si>
-    <t>16.611,00</t>
-  </si>
-  <si>
-    <t>1.605,00</t>
-  </si>
-  <si>
-    <t>60.000,00</t>
-  </si>
-  <si>
-    <t>47.827,50</t>
-  </si>
-  <si>
-    <t>105.000,00</t>
-  </si>
-  <si>
-    <t>275.800,00</t>
-  </si>
-  <si>
-    <t>648.000,00</t>
-  </si>
-  <si>
-    <t>35.000,00</t>
-  </si>
-  <si>
-    <t>286.800,00</t>
-  </si>
-  <si>
-    <t>153.400,00</t>
-  </si>
-  <si>
-    <t>1.322.000,00</t>
-  </si>
-  <si>
-    <t>6.000,00</t>
-  </si>
-  <si>
-    <t>29.064,20</t>
-  </si>
-  <si>
-    <t>4.370,00</t>
-  </si>
-  <si>
-    <t>286.000,00</t>
-  </si>
-  <si>
-    <t>462.698,19</t>
-  </si>
-  <si>
-    <t>135.000,00</t>
-  </si>
-  <si>
-    <t>3.846,08</t>
-  </si>
-  <si>
-    <t>2.781,30</t>
-  </si>
-  <si>
-    <t>1.040,02</t>
-  </si>
-  <si>
-    <t>400,00</t>
-  </si>
-  <si>
-    <t>815.786,19</t>
-  </si>
-  <si>
-    <t>316.980,30</t>
-  </si>
-  <si>
-    <t>8.256,00</t>
-  </si>
-  <si>
-    <t>21,50</t>
-  </si>
-  <si>
-    <t>209.111,03</t>
-  </si>
-  <si>
-    <t>6.970,00</t>
-  </si>
-  <si>
-    <t>48.983,00</t>
-  </si>
-  <si>
-    <t>73.172,00</t>
-  </si>
-  <si>
-    <t>56.434,22</t>
-  </si>
-  <si>
-    <t>26.799,26</t>
-  </si>
-  <si>
-    <t>21.200,00</t>
-  </si>
-  <si>
-    <t>3.600,00</t>
-  </si>
-  <si>
-    <t>26.620,00</t>
-  </si>
-  <si>
-    <t>4.240,00</t>
-  </si>
-  <si>
-    <t>11.690,00</t>
-  </si>
-  <si>
-    <t>12.350,00</t>
-  </si>
-  <si>
-    <t>837,30</t>
-  </si>
-  <si>
-    <t>280,00</t>
-  </si>
-  <si>
-    <t>1.352,88</t>
-  </si>
-  <si>
-    <t>39.370,00</t>
-  </si>
-  <si>
-    <t>27.706,98</t>
-  </si>
-  <si>
-    <t>220.644,00</t>
-  </si>
-  <si>
-    <t>894,75</t>
-  </si>
-  <si>
-    <t>463,05</t>
-  </si>
-  <si>
-    <t>66.550,00</t>
-  </si>
-  <si>
-    <t>432,00</t>
-  </si>
-  <si>
-    <t>1.073,44</t>
-  </si>
-  <si>
-    <t>39.165,77</t>
-  </si>
-  <si>
-    <t>6.938,40</t>
-  </si>
-  <si>
-    <t>4.597,00</t>
-  </si>
-  <si>
-    <t>41.816,35</t>
-  </si>
-  <si>
-    <t>100,00</t>
-  </si>
-  <si>
-    <t>10.873,88</t>
-  </si>
-  <si>
-    <t>550,00</t>
-  </si>
-  <si>
-    <t>564,90</t>
-  </si>
-  <si>
-    <t>44.752,69</t>
-  </si>
-  <si>
-    <t>26.260,00</t>
-  </si>
-  <si>
-    <t>4.033,66</t>
-  </si>
-  <si>
-    <t>682,44</t>
-  </si>
-  <si>
-    <t>10,30</t>
-  </si>
-  <si>
-    <t>277.940,00</t>
-  </si>
-  <si>
-    <t>244.200,00</t>
-  </si>
-  <si>
-    <t>12.079,00</t>
-  </si>
-  <si>
-    <t>9.513,55</t>
-  </si>
-  <si>
-    <t>1.200,00</t>
-  </si>
-  <si>
-    <t>3.365,00</t>
-  </si>
-  <si>
-    <t>72,13</t>
-  </si>
-  <si>
-    <t>6.836,63</t>
-  </si>
-  <si>
-    <t>6.922,50</t>
-  </si>
-  <si>
-    <t>22.119,98</t>
-  </si>
-  <si>
-    <t>360,00</t>
-  </si>
-  <si>
-    <t>17.600,00</t>
-  </si>
-  <si>
-    <t>20.000,00</t>
-  </si>
-  <si>
-    <t>815,00</t>
-  </si>
-  <si>
-    <t>490,00</t>
-  </si>
-  <si>
-    <t>8.000,00</t>
-  </si>
-  <si>
-    <t>41.148,00</t>
-  </si>
-  <si>
-    <t>5.235,00</t>
-  </si>
-  <si>
-    <t>3.270,00</t>
-  </si>
-  <si>
-    <t>22.618,84</t>
-  </si>
-  <si>
-    <t>450,00</t>
-  </si>
-  <si>
-    <t>15.400,00</t>
-  </si>
-  <si>
-    <t>2.700,00</t>
-  </si>
-  <si>
-    <t>1.584,72</t>
-  </si>
-  <si>
-    <t>10.000,00</t>
-  </si>
-  <si>
-    <t>23.552,00</t>
-  </si>
-  <si>
-    <t>6.052,00</t>
-  </si>
-  <si>
-    <t>21.000,00</t>
-  </si>
-  <si>
-    <t>19.920,00</t>
-  </si>
-  <si>
-    <t>9.355,00</t>
-  </si>
-  <si>
-    <t>9.960,00</t>
-  </si>
-  <si>
-    <t>4.900,00</t>
-  </si>
-  <si>
-    <t>289,00</t>
-  </si>
-  <si>
-    <t>196,38</t>
-  </si>
-  <si>
-    <t>6.520,00</t>
-  </si>
-  <si>
-    <t>954,42</t>
-  </si>
-  <si>
-    <t>500,00</t>
-  </si>
-  <si>
-    <t>1.095,00</t>
-  </si>
-  <si>
-    <t>5.998,00</t>
-  </si>
-  <si>
-    <t>1.908,00</t>
-  </si>
-  <si>
-    <t>526.097,59</t>
-  </si>
-  <si>
-    <t>491,20</t>
-  </si>
-  <si>
-    <t>56.163,57</t>
-  </si>
-  <si>
-    <t>88,67</t>
-  </si>
-  <si>
-    <t>150,00</t>
-  </si>
-  <si>
-    <t>75,00</t>
-  </si>
-  <si>
-    <t>6.354,00</t>
-  </si>
-  <si>
-    <t>5.484,00</t>
-  </si>
-  <si>
-    <t>42.000,00</t>
-  </si>
-  <si>
-    <t>515,00</t>
-  </si>
-  <si>
-    <t>488.000,00</t>
-  </si>
-  <si>
-    <t>5.644,00</t>
-  </si>
-  <si>
-    <t>381,00</t>
-  </si>
-  <si>
-    <t>3.178,50</t>
-  </si>
-  <si>
-    <t>1.540,00</t>
-  </si>
-  <si>
-    <t>19.620,00</t>
-  </si>
-  <si>
-    <t>1.837,50</t>
-  </si>
-  <si>
-    <t>61.649,85</t>
-  </si>
-  <si>
-    <t>2.297,00</t>
-  </si>
-  <si>
-    <t>7.958,26</t>
-  </si>
-  <si>
-    <t>6.354,98</t>
-  </si>
-  <si>
-    <t>217,96</t>
-  </si>
-  <si>
-    <t>1.665,10</t>
-  </si>
-  <si>
-    <t>614,61</t>
-  </si>
-  <si>
-    <t>665,00</t>
-  </si>
-  <si>
-    <t>18.224,00</t>
-  </si>
-  <si>
-    <t>6.335,00</t>
-  </si>
-  <si>
-    <t>3.267,00</t>
-  </si>
-  <si>
-    <t>4.340,90</t>
-  </si>
-  <si>
-    <t>7.204,26</t>
-  </si>
-  <si>
-    <t>7.700,00</t>
-  </si>
-  <si>
-    <t>45.360,00</t>
-  </si>
-  <si>
-    <t>6.280,00</t>
-  </si>
-  <si>
-    <t>410,00</t>
-  </si>
-  <si>
-    <t>3.500,00</t>
-  </si>
-  <si>
-    <t>148.800,00</t>
-  </si>
-  <si>
-    <t>2.236.323,00</t>
-  </si>
-  <si>
-    <t>50.240,35</t>
-  </si>
-  <si>
-    <t>6.652,50</t>
-  </si>
-  <si>
-    <t>5.670,00</t>
-  </si>
-  <si>
-    <t>1.366.222,00</t>
-  </si>
-  <si>
-    <t>246.895,00</t>
-  </si>
-  <si>
-    <t>15.000,00</t>
-  </si>
-  <si>
-    <t>16.000,00</t>
-  </si>
-  <si>
-    <t>5.000,00</t>
-  </si>
-  <si>
-    <t>2.500,00</t>
-  </si>
-  <si>
-    <t>3.867,50</t>
-  </si>
-  <si>
-    <t>5.112,00</t>
-  </si>
-  <si>
-    <t>3.000,00</t>
-  </si>
-  <si>
-    <t>4.000,00</t>
-  </si>
-  <si>
-    <t>4.100,00</t>
-  </si>
-  <si>
-    <t>30.000,00</t>
-  </si>
-  <si>
-    <t>17.880,00</t>
-  </si>
-  <si>
-    <t>1.320,00</t>
-  </si>
-  <si>
-    <t>224,19</t>
-  </si>
-  <si>
-    <t>925,00</t>
-  </si>
-  <si>
-    <t>258,16</t>
-  </si>
-  <si>
-    <t>12.150,00</t>
-  </si>
-  <si>
-    <t>13.245,00</t>
-  </si>
-  <si>
-    <t>2.778,03</t>
-  </si>
-  <si>
-    <t>3.482,66</t>
-  </si>
-  <si>
-    <t>9.782,00</t>
-  </si>
-  <si>
-    <t>38.900,00</t>
-  </si>
-  <si>
-    <t>6.016,96</t>
-  </si>
-  <si>
-    <t>728,00</t>
-  </si>
-  <si>
-    <t>6.908,17</t>
-  </si>
-  <si>
-    <t>3.346,40</t>
-  </si>
-  <si>
-    <t>2.400,00</t>
-  </si>
-  <si>
-    <t>1.618,59</t>
-  </si>
-  <si>
-    <t>10.324,94</t>
-  </si>
-  <si>
-    <t>5.415,60</t>
-  </si>
-  <si>
-    <t>502,16</t>
-  </si>
-  <si>
-    <t>206,00</t>
-  </si>
-  <si>
-    <t>1.590,00</t>
-  </si>
-  <si>
-    <t>2.015,00</t>
-  </si>
-  <si>
-    <t>4.500,00</t>
-  </si>
-  <si>
-    <t>16.480,00</t>
-  </si>
-  <si>
-    <t>6.660,00</t>
-  </si>
-  <si>
-    <t>4.615,74</t>
-  </si>
-  <si>
-    <t>330.705,00</t>
-  </si>
-  <si>
-    <t>18.000,00</t>
-  </si>
-  <si>
-    <t>2.766,11</t>
-  </si>
-  <si>
-    <t>5.300,00</t>
-  </si>
-  <si>
-    <t>6.940.092,41</t>
-  </si>
-  <si>
-    <t>161.000,00</t>
-  </si>
-  <si>
-    <t>7.754.549,25</t>
-  </si>
-  <si>
-    <t>215.000,00</t>
-  </si>
-  <si>
-    <t>6.900,00</t>
-  </si>
-  <si>
-    <t>5.500,00</t>
-  </si>
-  <si>
-    <t>4.800,00</t>
-  </si>
-  <si>
-    <t>6.300,00</t>
-  </si>
-  <si>
-    <t>23.300,00</t>
-  </si>
-  <si>
-    <t>127.000,00</t>
-  </si>
-  <si>
-    <t>68.400,00</t>
-  </si>
-  <si>
-    <t>5.263,00</t>
+    <t>4200.00</t>
+  </si>
+  <si>
+    <t>16611.00</t>
+  </si>
+  <si>
+    <t>1605.00</t>
+  </si>
+  <si>
+    <t>60000.00</t>
+  </si>
+  <si>
+    <t>47827.50</t>
+  </si>
+  <si>
+    <t>105000.00</t>
+  </si>
+  <si>
+    <t>275800.00</t>
+  </si>
+  <si>
+    <t>648000.00</t>
+  </si>
+  <si>
+    <t>35000.00</t>
+  </si>
+  <si>
+    <t>286800.00</t>
+  </si>
+  <si>
+    <t>153400.00</t>
+  </si>
+  <si>
+    <t>1322000.00</t>
+  </si>
+  <si>
+    <t>6000.00</t>
+  </si>
+  <si>
+    <t>29064.20</t>
+  </si>
+  <si>
+    <t>4370.00</t>
+  </si>
+  <si>
+    <t>286000.00</t>
+  </si>
+  <si>
+    <t>462698.19</t>
+  </si>
+  <si>
+    <t>135000.00</t>
+  </si>
+  <si>
+    <t>3846.08</t>
+  </si>
+  <si>
+    <t>2781.30</t>
+  </si>
+  <si>
+    <t>1040.02</t>
+  </si>
+  <si>
+    <t>400.00</t>
+  </si>
+  <si>
+    <t>815786.19</t>
+  </si>
+  <si>
+    <t>316980.30</t>
+  </si>
+  <si>
+    <t>8256.00</t>
+  </si>
+  <si>
+    <t>21.50</t>
+  </si>
+  <si>
+    <t>209111.03</t>
+  </si>
+  <si>
+    <t>6970.00</t>
+  </si>
+  <si>
+    <t>48983.00</t>
+  </si>
+  <si>
+    <t>73172.00</t>
+  </si>
+  <si>
+    <t>56434.22</t>
+  </si>
+  <si>
+    <t>26799.26</t>
+  </si>
+  <si>
+    <t>21200.00</t>
+  </si>
+  <si>
+    <t>3600.00</t>
+  </si>
+  <si>
+    <t>26620.00</t>
+  </si>
+  <si>
+    <t>4240.00</t>
+  </si>
+  <si>
+    <t>11690.00</t>
+  </si>
+  <si>
+    <t>12350.00</t>
+  </si>
+  <si>
+    <t>837.30</t>
+  </si>
+  <si>
+    <t>280.00</t>
+  </si>
+  <si>
+    <t>1352.88</t>
+  </si>
+  <si>
+    <t>39370.00</t>
+  </si>
+  <si>
+    <t>27706.98</t>
+  </si>
+  <si>
+    <t>220644.00</t>
+  </si>
+  <si>
+    <t>894.75</t>
+  </si>
+  <si>
+    <t>463.05</t>
+  </si>
+  <si>
+    <t>66550.00</t>
+  </si>
+  <si>
+    <t>432.00</t>
+  </si>
+  <si>
+    <t>1073.44</t>
+  </si>
+  <si>
+    <t>39165.77</t>
+  </si>
+  <si>
+    <t>6938.40</t>
+  </si>
+  <si>
+    <t>4597.00</t>
+  </si>
+  <si>
+    <t>41816.35</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>10873.88</t>
+  </si>
+  <si>
+    <t>550.00</t>
+  </si>
+  <si>
+    <t>564.90</t>
+  </si>
+  <si>
+    <t>44752.69</t>
+  </si>
+  <si>
+    <t>26260.00</t>
+  </si>
+  <si>
+    <t>4033.66</t>
+  </si>
+  <si>
+    <t>682.44</t>
+  </si>
+  <si>
+    <t>10.30</t>
+  </si>
+  <si>
+    <t>277940.00</t>
+  </si>
+  <si>
+    <t>244200.00</t>
+  </si>
+  <si>
+    <t>12079.00</t>
+  </si>
+  <si>
+    <t>9513.55</t>
+  </si>
+  <si>
+    <t>1200.00</t>
+  </si>
+  <si>
+    <t>3365.00</t>
+  </si>
+  <si>
+    <t>72.13</t>
+  </si>
+  <si>
+    <t>6836.63</t>
+  </si>
+  <si>
+    <t>6922.50</t>
+  </si>
+  <si>
+    <t>22119.98</t>
+  </si>
+  <si>
+    <t>360.00</t>
+  </si>
+  <si>
+    <t>17600.00</t>
+  </si>
+  <si>
+    <t>20000.00</t>
+  </si>
+  <si>
+    <t>815.00</t>
+  </si>
+  <si>
+    <t>490.00</t>
+  </si>
+  <si>
+    <t>8000.00</t>
+  </si>
+  <si>
+    <t>41148.00</t>
+  </si>
+  <si>
+    <t>5235.00</t>
+  </si>
+  <si>
+    <t>3270.00</t>
+  </si>
+  <si>
+    <t>22618.84</t>
+  </si>
+  <si>
+    <t>450.00</t>
+  </si>
+  <si>
+    <t>15400.00</t>
+  </si>
+  <si>
+    <t>2700.00</t>
+  </si>
+  <si>
+    <t>1584.72</t>
+  </si>
+  <si>
+    <t>10000.00</t>
+  </si>
+  <si>
+    <t>23552.00</t>
+  </si>
+  <si>
+    <t>6052.00</t>
+  </si>
+  <si>
+    <t>21000.00</t>
+  </si>
+  <si>
+    <t>19920.00</t>
+  </si>
+  <si>
+    <t>9355.00</t>
+  </si>
+  <si>
+    <t>9960.00</t>
+  </si>
+  <si>
+    <t>4900.00</t>
+  </si>
+  <si>
+    <t>289.00</t>
+  </si>
+  <si>
+    <t>196.38</t>
+  </si>
+  <si>
+    <t>6520.00</t>
+  </si>
+  <si>
+    <t>954.42</t>
+  </si>
+  <si>
+    <t>500.00</t>
+  </si>
+  <si>
+    <t>1095.00</t>
+  </si>
+  <si>
+    <t>5998.00</t>
+  </si>
+  <si>
+    <t>1908.00</t>
+  </si>
+  <si>
+    <t>526097.59</t>
+  </si>
+  <si>
+    <t>491.20</t>
+  </si>
+  <si>
+    <t>56163.57</t>
+  </si>
+  <si>
+    <t>88.67</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>6354.00</t>
+  </si>
+  <si>
+    <t>5484.00</t>
+  </si>
+  <si>
+    <t>42000.00</t>
+  </si>
+  <si>
+    <t>515.00</t>
+  </si>
+  <si>
+    <t>488000.00</t>
+  </si>
+  <si>
+    <t>5644.00</t>
+  </si>
+  <si>
+    <t>381.00</t>
+  </si>
+  <si>
+    <t>3178.50</t>
+  </si>
+  <si>
+    <t>1540.00</t>
+  </si>
+  <si>
+    <t>19620.00</t>
+  </si>
+  <si>
+    <t>1837.50</t>
+  </si>
+  <si>
+    <t>61649.85</t>
+  </si>
+  <si>
+    <t>2297.00</t>
+  </si>
+  <si>
+    <t>7958.26</t>
+  </si>
+  <si>
+    <t>6354.98</t>
+  </si>
+  <si>
+    <t>217.96</t>
+  </si>
+  <si>
+    <t>1665.10</t>
+  </si>
+  <si>
+    <t>614.61</t>
+  </si>
+  <si>
+    <t>665.00</t>
+  </si>
+  <si>
+    <t>18224.00</t>
+  </si>
+  <si>
+    <t>6335.00</t>
+  </si>
+  <si>
+    <t>3267.00</t>
+  </si>
+  <si>
+    <t>4340.90</t>
+  </si>
+  <si>
+    <t>7204.26</t>
+  </si>
+  <si>
+    <t>7700.00</t>
+  </si>
+  <si>
+    <t>45360.00</t>
+  </si>
+  <si>
+    <t>6280.00</t>
+  </si>
+  <si>
+    <t>410.00</t>
+  </si>
+  <si>
+    <t>3500.00</t>
+  </si>
+  <si>
+    <t>148800.00</t>
+  </si>
+  <si>
+    <t>2236323.00</t>
+  </si>
+  <si>
+    <t>50240.35</t>
+  </si>
+  <si>
+    <t>6652.50</t>
+  </si>
+  <si>
+    <t>5670.00</t>
+  </si>
+  <si>
+    <t>1366222.00</t>
+  </si>
+  <si>
+    <t>246895.00</t>
+  </si>
+  <si>
+    <t>15000.00</t>
+  </si>
+  <si>
+    <t>16000.00</t>
+  </si>
+  <si>
+    <t>5000.00</t>
+  </si>
+  <si>
+    <t>2500.00</t>
+  </si>
+  <si>
+    <t>3867.50</t>
+  </si>
+  <si>
+    <t>5112.00</t>
+  </si>
+  <si>
+    <t>3000.00</t>
+  </si>
+  <si>
+    <t>4000.00</t>
+  </si>
+  <si>
+    <t>4100.00</t>
+  </si>
+  <si>
+    <t>30000.00</t>
+  </si>
+  <si>
+    <t>17880.00</t>
+  </si>
+  <si>
+    <t>1320.00</t>
+  </si>
+  <si>
+    <t>224.19</t>
+  </si>
+  <si>
+    <t>925.00</t>
+  </si>
+  <si>
+    <t>258.16</t>
+  </si>
+  <si>
+    <t>12150.00</t>
+  </si>
+  <si>
+    <t>13245.00</t>
+  </si>
+  <si>
+    <t>2778.03</t>
+  </si>
+  <si>
+    <t>3482.66</t>
+  </si>
+  <si>
+    <t>9782.00</t>
+  </si>
+  <si>
+    <t>38900.00</t>
+  </si>
+  <si>
+    <t>6016.96</t>
+  </si>
+  <si>
+    <t>728.00</t>
+  </si>
+  <si>
+    <t>6908.17</t>
+  </si>
+  <si>
+    <t>3346.40</t>
+  </si>
+  <si>
+    <t>2400.00</t>
+  </si>
+  <si>
+    <t>1618.59</t>
+  </si>
+  <si>
+    <t>10324.94</t>
+  </si>
+  <si>
+    <t>5415.60</t>
+  </si>
+  <si>
+    <t>502.16</t>
+  </si>
+  <si>
+    <t>206.00</t>
+  </si>
+  <si>
+    <t>1590.00</t>
+  </si>
+  <si>
+    <t>2015.00</t>
+  </si>
+  <si>
+    <t>4500.00</t>
+  </si>
+  <si>
+    <t>16480.00</t>
+  </si>
+  <si>
+    <t>6660.00</t>
+  </si>
+  <si>
+    <t>4615.74</t>
+  </si>
+  <si>
+    <t>330705.00</t>
+  </si>
+  <si>
+    <t>18000.00</t>
+  </si>
+  <si>
+    <t>2766.11</t>
+  </si>
+  <si>
+    <t>5300.00</t>
+  </si>
+  <si>
+    <t>6940092.41</t>
+  </si>
+  <si>
+    <t>161000.00</t>
+  </si>
+  <si>
+    <t>7754549.25</t>
+  </si>
+  <si>
+    <t>215000.00</t>
+  </si>
+  <si>
+    <t>6900.00</t>
+  </si>
+  <si>
+    <t>5500.00</t>
+  </si>
+  <si>
+    <t>4800.00</t>
+  </si>
+  <si>
+    <t>6300.00</t>
+  </si>
+  <si>
+    <t>23300.00</t>
+  </si>
+  <si>
+    <t>127000.00</t>
+  </si>
+  <si>
+    <t>68400.00</t>
+  </si>
+  <si>
+    <t>5263.00</t>
   </si>
 </sst>
 </file>
